--- a/data/analysis/indicators/indic_pivot_tables/indic-region/indic_counts-region.xlsx
+++ b/data/analysis/indicators/indic_pivot_tables/indic-region/indic_counts-region.xlsx
@@ -85,22 +85,22 @@
     <t>Channel Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">East Midlands </t>
+    <t>East Midlands</t>
   </si>
   <si>
-    <t xml:space="preserve">East of England </t>
+    <t>East of England</t>
   </si>
   <si>
     <t>Isle of Man</t>
   </si>
   <si>
-    <t xml:space="preserve">London </t>
+    <t>London</t>
   </si>
   <si>
-    <t xml:space="preserve">North East </t>
+    <t>North East</t>
   </si>
   <si>
-    <t xml:space="preserve">North West </t>
+    <t>North West</t>
   </si>
   <si>
     <t>Northern Ireland</t>
@@ -109,19 +109,19 @@
     <t>Scotland</t>
   </si>
   <si>
-    <t xml:space="preserve">South East </t>
+    <t>South East</t>
   </si>
   <si>
-    <t xml:space="preserve">South West </t>
+    <t>South West</t>
   </si>
   <si>
     <t>Wales</t>
   </si>
   <si>
-    <t xml:space="preserve">West Midlands </t>
+    <t>West Midlands</t>
   </si>
   <si>
-    <t xml:space="preserve">Yorkshire and The Humber </t>
+    <t>Yorkshire and The Humber</t>
   </si>
 </sst>
 </file>
